--- a/biology/Médecine/Léopold_Turck/Léopold_Turck.xlsx
+++ b/biology/Médecine/Léopold_Turck/Léopold_Turck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9opold_Turck</t>
+          <t>Léopold_Turck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léopold  Turck né à Nancy le 11 novembre 1797 et mort à Gray le 5 juin 1887 est un médecin, professeur d'Université, et un homme politique, Commissaire du gouvernement du département des Vosges pendant le Gouvernement provisoire de 1848, et député des Vosges.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9opold_Turck</t>
+          <t>Léopold_Turck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études secondaires au Lycée de Nancy, il s'inscrit à la Faculté de médecine de Paris puis à celle de Strasbourg.
 Lors de la révolution de février 1848 il est nommé Commissaire du gouvernement provisoire des Vosges en poste à Épinal. Il refusera l'indemnité de 40 francs par jour attribuée à cette fonction. En désaccord avec les directives des circulaire d'Alexandre Ledru-Rollin, il donnera sa démission et se présentera aux suffrages comme représentant des Vosges à l'Assemblée constituante. Il sera élu le 23 avril 1848 : il sera de nombreuses fois publié dans Le Journal des Vosges. Nommé préfet des Vosges fin juin 1848, il est révoqué et remplacé le 19 juillet par Saint-Marc.   
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9opold_Turck</t>
+          <t>Léopold_Turck</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Du mode d'action des eaux minéro-thermales de Plombières, éd. Hérisé, 1834
 L'Acupuncture, 1836
